--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A67CBF3-D89E-4A26-B7A7-5691C885B0A4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AE905B-E1AD-4355-B109-DCE5FA2E4E4F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -268,9 +268,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -361,6 +358,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -698,7 +698,7 @@
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
@@ -719,26 +719,26 @@
       <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>42887</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="12"/>
+      <c r="C2" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="11"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -759,15 +759,15 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="8">
         <v>42887</v>
       </c>
       <c r="G3" s="4"/>
@@ -781,17 +781,17 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>42888</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>6000</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="F4" s="9">
+      <c r="D4" s="11"/>
+      <c r="F4" s="8">
         <v>42888</v>
       </c>
       <c r="G4" s="4"/>
@@ -805,15 +805,15 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11">
+      <c r="C5" s="11"/>
+      <c r="D5" s="10">
         <v>6000</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>42889</v>
       </c>
       <c r="G5" s="4"/>
@@ -827,17 +827,17 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>42889</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>3000</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="F6" s="9">
+      <c r="D6" s="11"/>
+      <c r="F6" s="8">
         <v>42890</v>
       </c>
       <c r="G6" s="4"/>
@@ -851,15 +851,15 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10">
         <v>3000</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>42891</v>
       </c>
       <c r="G7" s="4"/>
@@ -873,17 +873,17 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>42890</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="F8" s="9">
+      <c r="C8" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="F8" s="8">
         <v>42892</v>
       </c>
       <c r="G8" s="4"/>
@@ -897,48 +897,48 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>42891</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>5000</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="11"/>
+      <c r="F10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11">
+      <c r="C11" s="11"/>
+      <c r="D11" s="10">
         <v>5000</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -961,17 +961,17 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>42892</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="F12" s="9">
+      <c r="C12" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="F12" s="8">
         <v>42887</v>
       </c>
       <c r="G12" s="4"/>
@@ -980,17 +980,17 @@
         <v>1000</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="32">
+      <c r="K12" s="31">
         <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11">
+      <c r="C13" s="11"/>
+      <c r="D13" s="10">
         <v>1000</v>
       </c>
       <c r="F13" s="3"/>
@@ -1001,36 +1001,36 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="F15" s="8" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="F15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
       <c r="F16" s="5" t="s">
         <v>1</v>
       </c>
@@ -1051,11 +1051,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-      <c r="F17" s="9">
+      <c r="A17" s="19"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="F17" s="8">
         <v>42888</v>
       </c>
       <c r="G17" s="4"/>
@@ -1069,11 +1069,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="F18" s="9">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="F18" s="8">
         <v>42891</v>
       </c>
       <c r="G18" s="4"/>
@@ -1087,30 +1087,30 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="F20" s="8" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="F20" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
       <c r="F21" s="5" t="s">
         <v>1</v>
       </c>
@@ -1131,7 +1131,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>42889</v>
       </c>
       <c r="G22" s="4"/>
@@ -1153,22 +1153,22 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
     </row>
     <row r="25" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
     </row>
     <row r="26" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="5" t="s">
@@ -1191,7 +1191,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>42890</v>
       </c>
       <c r="G27" s="4"/>
@@ -1205,7 +1205,7 @@
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>42892</v>
       </c>
       <c r="G28" s="4"/>
@@ -1219,12 +1219,12 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="31"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AE905B-E1AD-4355-B109-DCE5FA2E4E4F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C42DE-E3C4-441E-98BB-F0E443AA1511}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
   <si>
     <t>Cash</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t xml:space="preserve">    Fees Earned</t>
+  </si>
+  <si>
+    <t>JOURNAL</t>
+  </si>
+  <si>
+    <t>LEDGER</t>
   </si>
 </sst>
 </file>
@@ -85,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +120,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +172,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFF7FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -243,6 +263,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCAE8FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCAE8FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCAE8FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -253,9 +293,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -334,19 +371,9 @@
     <xf numFmtId="3" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,10 +383,25 @@
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -370,10 +412,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDFF7FD"/>
       <color rgb="FFEFFAFD"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FFCAE8FF"/>
-      <color rgb="FFDFF7FD"/>
       <color rgb="FFD9D9D9"/>
       <color rgb="FFE1A16C"/>
     </mruColors>
@@ -686,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,21 +748,15 @@
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>0</v>
+    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="F1" s="38" t="s">
+        <v>16</v>
       </c>
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
@@ -728,517 +764,513 @@
       <c r="J1" s="39"/>
       <c r="K1" s="39"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>42887</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="F2" s="5" t="s">
+      <c r="C3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="12" t="s">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="7">
         <v>42887</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="G4" s="3"/>
+      <c r="H4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>42888</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C5" s="9">
         <v>6000</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="F4" s="8">
+      <c r="D5" s="10"/>
+      <c r="F5" s="7">
         <v>42888</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6">
+      <c r="G5" s="3"/>
+      <c r="H5" s="5">
         <v>6000</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5">
         <v>7000</v>
       </c>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12" t="s">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10">
+      <c r="C6" s="10"/>
+      <c r="D6" s="9">
         <v>6000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6" s="7">
         <v>42889</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6">
+      <c r="G6" s="3"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
         <v>3000</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J6" s="5">
         <v>4000</v>
       </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>42889</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C7" s="9">
         <v>3000</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="F6" s="8">
+      <c r="D7" s="10"/>
+      <c r="F7" s="7">
         <v>42890</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6">
-        <v>1000</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="G7" s="3"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="5">
         <v>3000</v>
       </c>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9" t="s">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10">
+      <c r="C8" s="10"/>
+      <c r="D8" s="9">
         <v>3000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="7">
         <v>42891</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6">
+      <c r="G8" s="3"/>
+      <c r="H8" s="5">
         <v>5000</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
         <v>8000</v>
       </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>42890</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="F8" s="8">
+      <c r="C9" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="F9" s="7">
         <v>42892</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="G9" s="3"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="5">
         <v>7000</v>
       </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="C10" s="10"/>
+      <c r="D10" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>42891</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C11" s="9">
         <v>5000</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="F10" s="39" t="s">
+      <c r="D11" s="10"/>
+      <c r="F11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9" t="s">
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10">
+      <c r="C12" s="10"/>
+      <c r="D12" s="9">
         <v>5000</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>42892</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="F12" s="8">
+      <c r="C13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="F13" s="7">
         <v>42887</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="31">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="D14" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="F15" s="39" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="F15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="F16" s="5" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="F16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17"/>
-      <c r="F17" s="8">
+      <c r="A17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="F17" s="7">
         <v>42888</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6">
+      <c r="G17" s="3"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
         <v>6000</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5">
         <v>6000</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="F18" s="8">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="F18" s="7">
         <v>42891</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6">
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
         <v>5000</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5">
         <v>11000</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="F20" s="39" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="F20" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="17"/>
-      <c r="F21" s="5" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="F21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>42889</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="6">
+      <c r="G22" s="3"/>
+      <c r="H22" s="5">
         <v>3000</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5">
         <v>3000</v>
       </c>
-      <c r="K22" s="6"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="35"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="24" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="36" t="s">
+        <v>13</v>
+      </c>
       <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-    </row>
-    <row r="26" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="7">
+        <v>42890</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
     <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="8">
-        <v>42890</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="8">
+      <c r="F27" s="7">
         <v>42892</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6">
+      <c r="G27" s="3"/>
+      <c r="H27" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5">
         <v>2000</v>
       </c>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="30"/>
-    </row>
-    <row r="30" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="8:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="2"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F11:K11"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="F24:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C42DE-E3C4-441E-98BB-F0E443AA1511}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FE49F5-8454-4292-B2B4-039B5CA2A226}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -731,7 +731,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FE49F5-8454-4292-B2B4-039B5CA2A226}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B772C17F-DA27-469C-B7C2-2830555BAF45}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -219,19 +219,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFCAE8FF"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCAE8FF"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0"/>
       </left>
       <right style="thin">
@@ -283,6 +270,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCAE8FF"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -341,68 +339,68 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,20 +747,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -777,14 +775,14 @@
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -963,12 +961,12 @@
       <c r="D10" s="9">
         <v>1000</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -981,14 +979,14 @@
         <v>5000</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -1038,7 +1036,7 @@
         <v>1000</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="29">
+      <c r="K13" s="28">
         <v>1000</v>
       </c>
     </row>
@@ -1051,32 +1049,32 @@
       <c r="D14" s="9">
         <v>1000</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="F15" s="36" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="F15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
       <c r="F16" s="4" t="s">
         <v>1</v>
       </c>
@@ -1143,14 +1141,14 @@
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
@@ -1191,22 +1189,22 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="4" t="s">
@@ -1264,13 +1262,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F24:K24"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F24:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B772C17F-DA27-469C-B7C2-2830555BAF45}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05581AEC-190F-4030-8821-3C26B66A98D1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="10860" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
